--- a/Assignment 1/DemandGroup12.xlsx
+++ b/Assignment 1/DemandGroup12.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjribeiro/Documents/courses/AE4423 Airline Planning &amp; Optimisation/2024/assignments/To Students/Assignment1/Data/Exercise1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjribeiro/Documents/courses/AE4423 Airline Planning &amp; Optimisation/2025/Assignment2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{289D2BEF-13E5-A54C-98C2-6BF763D4DC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615E890F-410A-604E-BFE9-DCAB313AB55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8460" yWindow="8660" windowWidth="22840" windowHeight="10940" xr2:uid="{3880D9BF-1A09-3440-AAC3-8C1C054475AA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>LPMA</t>
   </si>
@@ -99,12 +99,6 @@
   </si>
   <si>
     <t>Demand per week</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Available slots</t>
   </si>
   <si>
     <t>Runway (m)</t>
@@ -566,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B12DD11-782A-3945-81A2-CFA2A03D770D}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:V32"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,94 +589,94 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="R4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="T4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="V4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -747,7 +741,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>51.470599999999997</v>
@@ -812,7 +806,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>-0.46194000000000002</v>
@@ -877,7 +871,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>3200</v>
@@ -940,261 +934,261 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>7</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>31</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
+      <c r="T11" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>2</v>
-      </c>
-      <c r="Q9">
-        <v>3</v>
-      </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <v>3</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>3</v>
-      </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>970</v>
+      </c>
+      <c r="E12">
+        <v>639</v>
+      </c>
+      <c r="F12">
+        <v>280</v>
+      </c>
+      <c r="G12">
+        <v>223</v>
+      </c>
+      <c r="H12">
+        <v>165</v>
+      </c>
+      <c r="I12">
+        <v>284</v>
+      </c>
+      <c r="J12">
+        <v>206</v>
+      </c>
+      <c r="K12">
+        <v>505</v>
+      </c>
+      <c r="L12">
+        <v>142</v>
+      </c>
+      <c r="M12">
+        <v>53</v>
+      </c>
+      <c r="N12">
+        <v>415</v>
+      </c>
+      <c r="O12">
+        <v>97</v>
+      </c>
+      <c r="P12">
+        <v>107</v>
+      </c>
+      <c r="Q12">
+        <v>287</v>
+      </c>
+      <c r="R12">
+        <v>59</v>
+      </c>
+      <c r="S12">
+        <v>19</v>
+      </c>
+      <c r="T12">
+        <v>53</v>
+      </c>
+      <c r="U12">
+        <v>78</v>
+      </c>
+      <c r="V12">
         <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" t="s">
-        <v>9</v>
-      </c>
-      <c r="N12" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" t="s">
-        <v>2</v>
-      </c>
-      <c r="U12" t="s">
-        <v>1</v>
-      </c>
-      <c r="V12" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
+        <v>970</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>970</v>
-      </c>
       <c r="E13">
-        <v>639</v>
+        <v>292</v>
       </c>
       <c r="F13">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="G13">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="H13">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="I13">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="J13">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="K13">
-        <v>505</v>
+        <v>139</v>
       </c>
       <c r="L13">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="M13">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="N13">
-        <v>415</v>
+        <v>252</v>
       </c>
       <c r="O13">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="P13">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="Q13">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="R13">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="S13">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="U13">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="V13">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>639</v>
+      </c>
+      <c r="D14">
+        <v>292</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>207</v>
+      </c>
+      <c r="G14">
+        <v>50</v>
+      </c>
+      <c r="H14">
+        <v>61</v>
+      </c>
+      <c r="I14">
+        <v>146</v>
+      </c>
+      <c r="J14">
+        <v>89</v>
+      </c>
+      <c r="K14">
+        <v>107</v>
+      </c>
+      <c r="L14">
+        <v>63</v>
+      </c>
+      <c r="M14">
+        <v>22</v>
+      </c>
+      <c r="N14">
+        <v>254</v>
+      </c>
+      <c r="O14">
+        <v>51</v>
+      </c>
+      <c r="P14">
+        <v>57</v>
+      </c>
+      <c r="Q14">
+        <v>89</v>
+      </c>
+      <c r="R14">
         <v>18</v>
       </c>
-      <c r="C14">
-        <v>970</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>292</v>
-      </c>
-      <c r="F14">
-        <v>228</v>
-      </c>
-      <c r="G14">
-        <v>149</v>
-      </c>
-      <c r="H14">
-        <v>124</v>
-      </c>
-      <c r="I14">
-        <v>181</v>
-      </c>
-      <c r="J14">
-        <v>147</v>
-      </c>
-      <c r="K14">
-        <v>139</v>
-      </c>
-      <c r="L14">
-        <v>82</v>
-      </c>
-      <c r="M14">
-        <v>25</v>
-      </c>
-      <c r="N14">
-        <v>252</v>
-      </c>
-      <c r="O14">
-        <v>44</v>
-      </c>
-      <c r="P14">
-        <v>39</v>
-      </c>
-      <c r="Q14">
-        <v>78</v>
-      </c>
-      <c r="R14">
-        <v>41</v>
-      </c>
       <c r="S14">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="T14">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U14">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="V14">
         <v>1</v>
@@ -1202,64 +1196,64 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>639</v>
+        <v>280</v>
       </c>
       <c r="D15">
-        <v>292</v>
+        <v>228</v>
       </c>
       <c r="E15">
+        <v>207</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>207</v>
-      </c>
       <c r="G15">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H15">
         <v>61</v>
       </c>
       <c r="I15">
-        <v>146</v>
+        <v>304</v>
       </c>
       <c r="J15">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="K15">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="L15">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>330</v>
+      </c>
+      <c r="O15">
+        <v>36</v>
+      </c>
+      <c r="P15">
+        <v>46</v>
+      </c>
+      <c r="Q15">
+        <v>40</v>
+      </c>
+      <c r="R15">
         <v>22</v>
-      </c>
-      <c r="N15">
-        <v>254</v>
-      </c>
-      <c r="O15">
-        <v>51</v>
-      </c>
-      <c r="P15">
-        <v>57</v>
-      </c>
-      <c r="Q15">
-        <v>89</v>
-      </c>
-      <c r="R15">
-        <v>18</v>
       </c>
       <c r="S15">
         <v>12</v>
       </c>
       <c r="T15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U15">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="V15">
         <v>1</v>
@@ -1267,649 +1261,649 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="D16">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="E16">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="F16">
+        <v>52</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="G16">
-        <v>52</v>
-      </c>
       <c r="H16">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="I16">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="J16">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K16">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="L16">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="N16">
-        <v>330</v>
+        <v>102</v>
       </c>
       <c r="O16">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="P16">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q16">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="R16">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S16">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="T16">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="U16">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>165</v>
+      </c>
+      <c r="D17">
+        <v>124</v>
+      </c>
+      <c r="E17">
+        <v>61</v>
+      </c>
+      <c r="F17">
+        <v>61</v>
+      </c>
+      <c r="G17">
+        <v>241</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>94</v>
+      </c>
+      <c r="J17">
+        <v>134</v>
+      </c>
+      <c r="K17">
+        <v>49</v>
+      </c>
+      <c r="L17">
+        <v>44</v>
+      </c>
+      <c r="M17">
+        <v>28</v>
+      </c>
+      <c r="N17">
+        <v>76</v>
+      </c>
+      <c r="O17">
+        <v>23</v>
+      </c>
+      <c r="P17">
+        <v>39</v>
+      </c>
+      <c r="Q17">
         <v>15</v>
       </c>
-      <c r="C17">
-        <v>223</v>
-      </c>
-      <c r="D17">
-        <v>149</v>
-      </c>
-      <c r="E17">
-        <v>50</v>
-      </c>
-      <c r="F17">
-        <v>52</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>241</v>
-      </c>
-      <c r="I17">
-        <v>80</v>
-      </c>
-      <c r="J17">
-        <v>115</v>
-      </c>
-      <c r="K17">
-        <v>68</v>
-      </c>
-      <c r="L17">
-        <v>40</v>
-      </c>
-      <c r="M17">
-        <v>92</v>
-      </c>
-      <c r="N17">
-        <v>102</v>
-      </c>
-      <c r="O17">
-        <v>14</v>
-      </c>
-      <c r="P17">
-        <v>42</v>
-      </c>
-      <c r="Q17">
-        <v>29</v>
-      </c>
       <c r="R17">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="S17">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="T17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="U17">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="V17">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18">
-        <v>165</v>
+        <v>284</v>
       </c>
       <c r="D18">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="E18">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="F18">
-        <v>61</v>
+        <v>304</v>
       </c>
       <c r="G18">
-        <v>241</v>
+        <v>80</v>
       </c>
       <c r="H18">
+        <v>94</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>94</v>
-      </c>
       <c r="J18">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="K18">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N18">
-        <v>76</v>
+        <v>408</v>
       </c>
       <c r="O18">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="P18">
+        <v>88</v>
+      </c>
+      <c r="Q18">
         <v>39</v>
       </c>
-      <c r="Q18">
-        <v>15</v>
-      </c>
       <c r="R18">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="S18">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="T18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U18">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
-        <v>284</v>
+        <v>206</v>
       </c>
       <c r="D19">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="E19">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="F19">
-        <v>304</v>
+        <v>110</v>
       </c>
       <c r="G19">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="H19">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="I19">
+        <v>183</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>183</v>
-      </c>
       <c r="K19">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L19">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="M19">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N19">
-        <v>408</v>
+        <v>178</v>
       </c>
       <c r="O19">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P19">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="Q19">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="R19">
         <v>59</v>
       </c>
       <c r="S19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T19">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="U19">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>505</v>
+      </c>
+      <c r="D20">
+        <v>139</v>
+      </c>
+      <c r="E20">
+        <v>107</v>
+      </c>
+      <c r="F20">
+        <v>49</v>
+      </c>
+      <c r="G20">
+        <v>68</v>
+      </c>
+      <c r="H20">
+        <v>49</v>
+      </c>
+      <c r="I20">
+        <v>66</v>
+      </c>
+      <c r="J20">
+        <v>62</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>106</v>
+      </c>
+      <c r="O20">
         <v>12</v>
       </c>
-      <c r="C20">
-        <v>206</v>
-      </c>
-      <c r="D20">
-        <v>147</v>
-      </c>
-      <c r="E20">
-        <v>89</v>
-      </c>
-      <c r="F20">
-        <v>110</v>
-      </c>
-      <c r="G20">
-        <v>115</v>
-      </c>
-      <c r="H20">
-        <v>134</v>
-      </c>
-      <c r="I20">
-        <v>183</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>62</v>
-      </c>
-      <c r="L20">
-        <v>63</v>
-      </c>
-      <c r="M20">
+      <c r="P20">
+        <v>33</v>
+      </c>
+      <c r="Q20">
+        <v>175</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>9</v>
+      </c>
+      <c r="U20">
         <v>26</v>
       </c>
-      <c r="N20">
-        <v>178</v>
-      </c>
-      <c r="O20">
-        <v>29</v>
-      </c>
-      <c r="P20">
-        <v>46</v>
-      </c>
-      <c r="Q20">
-        <v>26</v>
-      </c>
-      <c r="R20">
-        <v>59</v>
-      </c>
-      <c r="S20">
-        <v>14</v>
-      </c>
-      <c r="T20">
-        <v>27</v>
-      </c>
-      <c r="U20">
-        <v>183</v>
-      </c>
       <c r="V20">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>505</v>
+        <v>142</v>
       </c>
       <c r="D21">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E21">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="F21">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G21">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="H21">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I21">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J21">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K21">
+        <v>30</v>
+      </c>
+      <c r="L21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>30</v>
-      </c>
       <c r="M21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N21">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="O21">
+        <v>186</v>
+      </c>
+      <c r="P21">
+        <v>75</v>
+      </c>
+      <c r="Q21">
+        <v>24</v>
+      </c>
+      <c r="R21">
+        <v>21</v>
+      </c>
+      <c r="S21">
+        <v>13</v>
+      </c>
+      <c r="T21">
+        <v>16</v>
+      </c>
+      <c r="U21">
+        <v>19</v>
+      </c>
+      <c r="V21">
         <v>12</v>
-      </c>
-      <c r="P21">
-        <v>33</v>
-      </c>
-      <c r="Q21">
-        <v>175</v>
-      </c>
-      <c r="R21">
-        <v>3</v>
-      </c>
-      <c r="S21">
-        <v>6</v>
-      </c>
-      <c r="T21">
-        <v>9</v>
-      </c>
-      <c r="U21">
-        <v>26</v>
-      </c>
-      <c r="V21">
-        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22">
         <v>10</v>
       </c>
-      <c r="C22">
-        <v>142</v>
-      </c>
-      <c r="D22">
-        <v>82</v>
-      </c>
-      <c r="E22">
-        <v>63</v>
-      </c>
-      <c r="F22">
-        <v>47</v>
-      </c>
       <c r="G22">
+        <v>92</v>
+      </c>
+      <c r="H22">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>32</v>
+      </c>
+      <c r="J22">
+        <v>26</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
         <v>40</v>
       </c>
-      <c r="H22">
-        <v>44</v>
-      </c>
-      <c r="I22">
-        <v>76</v>
-      </c>
-      <c r="J22">
-        <v>63</v>
-      </c>
-      <c r="K22">
-        <v>30</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>10</v>
-      </c>
-      <c r="N22">
-        <v>199</v>
-      </c>
       <c r="O22">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="P22">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="R22">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="S22">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U22">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>53</v>
+        <v>415</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>252</v>
       </c>
       <c r="E23">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>330</v>
       </c>
       <c r="G23">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="H23">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I23">
-        <v>32</v>
+        <v>408</v>
       </c>
       <c r="J23">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
         <v>0</v>
       </c>
-      <c r="N23">
-        <v>40</v>
-      </c>
       <c r="O23">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="P23">
-        <v>21</v>
+        <v>193</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="R23">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="T23">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24">
-        <v>415</v>
+        <v>97</v>
       </c>
       <c r="D24">
-        <v>252</v>
+        <v>44</v>
       </c>
       <c r="E24">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="F24">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="G24">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="H24">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="I24">
-        <v>408</v>
+        <v>36</v>
       </c>
       <c r="J24">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="K24">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="L24">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N24">
+        <v>116</v>
+      </c>
+      <c r="O24">
         <v>0</v>
       </c>
-      <c r="O24">
-        <v>116</v>
-      </c>
       <c r="P24">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="Q24">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="R24">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="S24">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="U24">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="V24">
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E25">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F25">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G25">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="H25">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="I25">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="J25">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="L25">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="M25">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N25">
-        <v>116</v>
+        <v>193</v>
       </c>
       <c r="O25">
+        <v>31</v>
+      </c>
+      <c r="P25">
         <v>0</v>
       </c>
-      <c r="P25">
-        <v>31</v>
-      </c>
       <c r="Q25">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="R25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T25">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="V25">
         <v>1</v>
@@ -1917,456 +1911,391 @@
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>287</v>
+      </c>
+      <c r="D26">
+        <v>78</v>
+      </c>
+      <c r="E26">
+        <v>89</v>
+      </c>
+      <c r="F26">
+        <v>40</v>
+      </c>
+      <c r="G26">
+        <v>29</v>
+      </c>
+      <c r="H26">
+        <v>15</v>
+      </c>
+      <c r="I26">
+        <v>39</v>
+      </c>
+      <c r="J26">
+        <v>26</v>
+      </c>
+      <c r="K26">
+        <v>175</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>18</v>
+      </c>
+      <c r="N26">
+        <v>73</v>
+      </c>
+      <c r="O26">
+        <v>26</v>
+      </c>
+      <c r="P26">
+        <v>15</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>7</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>29</v>
+      </c>
+      <c r="U26">
         <v>6</v>
       </c>
-      <c r="C26">
-        <v>107</v>
-      </c>
-      <c r="D26">
-        <v>39</v>
-      </c>
-      <c r="E26">
-        <v>57</v>
-      </c>
-      <c r="F26">
-        <v>46</v>
-      </c>
-      <c r="G26">
-        <v>42</v>
-      </c>
-      <c r="H26">
-        <v>39</v>
-      </c>
-      <c r="I26">
-        <v>88</v>
-      </c>
-      <c r="J26">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>33</v>
-      </c>
-      <c r="L26">
-        <v>75</v>
-      </c>
-      <c r="M26">
-        <v>21</v>
-      </c>
-      <c r="N26">
-        <v>193</v>
-      </c>
-      <c r="O26">
-        <v>31</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>15</v>
-      </c>
-      <c r="R26">
-        <v>40</v>
-      </c>
-      <c r="S26">
+      <c r="V26">
         <v>3</v>
-      </c>
-      <c r="T26">
-        <v>1</v>
-      </c>
-      <c r="U26">
-        <v>5</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>287</v>
+        <v>59</v>
       </c>
       <c r="D27">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E27">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="F27">
+        <v>22</v>
+      </c>
+      <c r="G27">
+        <v>19</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>59</v>
+      </c>
+      <c r="J27">
+        <v>59</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>21</v>
+      </c>
+      <c r="M27">
+        <v>14</v>
+      </c>
+      <c r="N27">
+        <v>59</v>
+      </c>
+      <c r="O27">
+        <v>20</v>
+      </c>
+      <c r="P27">
         <v>40</v>
       </c>
-      <c r="G27">
-        <v>29</v>
-      </c>
-      <c r="H27">
-        <v>15</v>
-      </c>
-      <c r="I27">
-        <v>39</v>
-      </c>
-      <c r="J27">
-        <v>26</v>
-      </c>
-      <c r="K27">
-        <v>175</v>
-      </c>
-      <c r="L27">
-        <v>24</v>
-      </c>
-      <c r="M27">
+      <c r="Q27">
+        <v>7</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>20</v>
+      </c>
+      <c r="T27">
+        <v>14</v>
+      </c>
+      <c r="U27">
+        <v>28</v>
+      </c>
+      <c r="V27">
         <v>18</v>
-      </c>
-      <c r="N27">
-        <v>73</v>
-      </c>
-      <c r="O27">
-        <v>26</v>
-      </c>
-      <c r="P27">
-        <v>15</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>7</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-      <c r="T27">
-        <v>29</v>
-      </c>
-      <c r="U27">
-        <v>6</v>
-      </c>
-      <c r="V27">
-        <v>3</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>19</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>59</v>
-      </c>
-      <c r="D28">
-        <v>41</v>
-      </c>
       <c r="E28">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G28">
         <v>19</v>
       </c>
       <c r="H28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="J28">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="K28">
+        <v>6</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>24</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
         <v>3</v>
       </c>
-      <c r="L28">
-        <v>21</v>
-      </c>
-      <c r="M28">
-        <v>14</v>
-      </c>
-      <c r="N28">
-        <v>59</v>
-      </c>
-      <c r="O28">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
         <v>20</v>
       </c>
-      <c r="P28">
-        <v>40</v>
-      </c>
-      <c r="Q28">
-        <v>7</v>
-      </c>
-      <c r="R28">
+      <c r="S28">
         <v>0</v>
       </c>
-      <c r="S28">
-        <v>20</v>
-      </c>
       <c r="T28">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="V28">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E29">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="I29">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J29">
+        <v>27</v>
+      </c>
+      <c r="K29">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>16</v>
+      </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>36</v>
+      </c>
+      <c r="O29">
+        <v>9</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>29</v>
+      </c>
+      <c r="R29">
         <v>14</v>
       </c>
-      <c r="K29">
-        <v>6</v>
-      </c>
-      <c r="L29">
-        <v>13</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>24</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>3</v>
-      </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>20</v>
-      </c>
       <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
         <v>0</v>
       </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
       <c r="U29">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="V29">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>34</v>
+      </c>
+      <c r="E30">
+        <v>26</v>
+      </c>
+      <c r="F30">
+        <v>31</v>
+      </c>
+      <c r="G30">
         <v>53</v>
       </c>
-      <c r="D30">
+      <c r="H30">
+        <v>48</v>
+      </c>
+      <c r="I30">
+        <v>53</v>
+      </c>
+      <c r="J30">
+        <v>183</v>
+      </c>
+      <c r="K30">
+        <v>26</v>
+      </c>
+      <c r="L30">
+        <v>19</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>61</v>
+      </c>
+      <c r="O30">
+        <v>10</v>
+      </c>
+      <c r="P30">
+        <v>5</v>
+      </c>
+      <c r="Q30">
         <v>6</v>
       </c>
-      <c r="E30">
-        <v>24</v>
-      </c>
-      <c r="F30">
-        <v>26</v>
-      </c>
-      <c r="G30">
-        <v>20</v>
-      </c>
-      <c r="H30">
-        <v>18</v>
-      </c>
-      <c r="I30">
-        <v>21</v>
-      </c>
-      <c r="J30">
-        <v>27</v>
-      </c>
-      <c r="K30">
-        <v>9</v>
-      </c>
-      <c r="L30">
+      <c r="R30">
+        <v>28</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
         <v>16</v>
       </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
-        <v>36</v>
-      </c>
-      <c r="O30">
-        <v>9</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>29</v>
-      </c>
-      <c r="R30">
-        <v>14</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-      <c r="T30">
+      <c r="U30">
         <v>0</v>
       </c>
-      <c r="U30">
-        <v>16</v>
-      </c>
       <c r="V30">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
         <v>26</v>
       </c>
-      <c r="F31">
-        <v>31</v>
-      </c>
-      <c r="G31">
-        <v>53</v>
-      </c>
-      <c r="H31">
-        <v>48</v>
-      </c>
-      <c r="I31">
-        <v>53</v>
-      </c>
-      <c r="J31">
-        <v>183</v>
-      </c>
       <c r="K31">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="O31">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R31">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="V31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>20</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>9</v>
-      </c>
-      <c r="H32">
-        <v>2</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>26</v>
-      </c>
-      <c r="K32">
-        <v>19</v>
-      </c>
-      <c r="L32">
-        <v>12</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>27</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>3</v>
-      </c>
-      <c r="R32">
-        <v>18</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <v>17</v>
-      </c>
-      <c r="U32">
-        <v>12</v>
-      </c>
-      <c r="V32">
         <v>0</v>
       </c>
     </row>
